--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3048.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3048.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1983725452947289</v>
+        <v>0.5592766404151917</v>
       </c>
       <c r="B1">
-        <v>0.3088150437983209</v>
+        <v>3.960298776626587</v>
       </c>
       <c r="C1">
-        <v>0.7664694787686307</v>
+        <v>6.227667331695557</v>
       </c>
       <c r="D1">
-        <v>4.675394445920132</v>
+        <v>1.469992876052856</v>
       </c>
       <c r="E1">
-        <v>4.416302679418642</v>
+        <v>0.844560980796814</v>
       </c>
     </row>
   </sheetData>
